--- a/QALD9-Plus-testing/zero-shot-entity-aligned/zero-shot-entity-aligned-dbpedia-wikidata/zero_shot_mistral_wikidata_results_analysis.xlsx
+++ b/QALD9-Plus-testing/zero-shot-entity-aligned/zero-shot-entity-aligned-dbpedia-wikidata/zero_shot_mistral_wikidata_results_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\zero-shot-entity-aligned\zero-shot-entity-aligned-dbpedia-wikidata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF1E101-5CAF-4909-93AB-BC6F3436AB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C127407-80F2-41FC-AEE1-5E26363BB870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="444">
   <si>
     <t>Question</t>
   </si>
@@ -349,306 +349,6 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { VALUES ?penguinBooks { wd:Q1336200 wd:Q3374730 } ?penguinBooks wdt:P112 ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P57 wd:Q2001 }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?musical WHERE { ?musical wdt:P31 wd:Q2743 ; wdt:P86 wd:Q2808 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q40984 wdt:P178 ?uri. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?x wdt:P57 wd:Q16297 ; wdt:P161 ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q38111 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?date WHERE { wd:Q53713 wdt:P570 ?date . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q34851&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q151973&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { wd:Q49740 wdt:P178 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?n WHERE { wd:Q2608065 wdt:P2769 ?n . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?x wdt:P31 wd:Q482994 ; wdt:P175 wd:Q303 ; wdt:P577 ?y ; wdt:P264 ?uri } ORDER BY ASC(?y) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX bd: &lt;http://www.bigdata.com/rdf#&gt; SELECT DISTINCT ?runtime WHERE { wd:Q171048 wdt:P2047 ?runtime. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5280538, wd:Q806349 ; wdt:P1303 wd:Q119621, wd:Q8338 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P57 wd:Q315087 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q241665 wdt:P569 ?uri. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q1207989 wdt:P2048 ?num . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P131 wd:Q38 ; wdt:P2044 ?num . } ORDER BY DESC(?num) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q937 wdt:P184 ?uri. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?owner WHERE { ?owner wdt:P127 wd:Q22686 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P26&gt; &lt;http://www.wikidata.org/entity/Q37079&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?population WHERE { wd:Q5401 wdt:P1082 ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?Author WHERE { wd:Q726382 wdt:P50 ?Author }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:Q11806 wdt:P569 ?date . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q458 wdt:P1082 ?europop . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?currency WHERE { wd:Q148 wdt:P38 ?currency. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?x WHERE { wd:Q692 wdt:P570 ?x } LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q41291; wdt:P448 wd:Q177477. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q131007 wdt:P178 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q4830453 . { ?uri wdt:P452 wd:Q854995 } UNION { ?uri wdt:P452 wd:Q37038 } UNION { ?uri wdt:P452 wd:Q1286627 } UNION { ?uri wdt:P452 ?industry FILTER regex(?industry, "advertising", "i") } }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?university WHERE { wd:Q567 wdt:P69 ?university. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P161 wd:Q485310 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q37079 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?country WHERE { wd:Q513 wdt:P131 ?country . ?country wdt:P31 wd:Q6256 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q125006 wdt:P177 ?uri. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q10843402 ; wdt:P19 wd:Q649 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q103894 ; wdt:P577 ?date . } ORDER BY DESC(?date) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pop WHERE { VALUES (?cairo) { (wd:Q85) (wd:Q20230483) } ?cairo wdt:P1082 ?pop. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q5 ; wdt:P19 wd:Q160544 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { wd:Q34969 wdt:P40 ?uri. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?ele WHERE { wd:Q58226 wdt:P2044 ?ele } LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q5806 wdt:P17 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?height WHERE { wd:Q76717 wdt:P2048 ?height . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q1163227 wdt:P50 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?genre WHERE { wd:Q189080 wdt:P136 ?genre. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?place WHERE { wd:Q40912 wdt:P19 ?place. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q515 ; wdt:P1082 ?pop } ORDER BY ASC(?pop) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q8704 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?ni WHERE { &lt;http://www.wikidata.org/entity/Q312&gt; &lt;http://www.wikidata.org/entity/P2295&gt; ?ni }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q91 wdt:P20 ?uri. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?capital WHERE { VALUES ?himalaya { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalaya wdt:P17 ?country . ?country wdt:P36 ?capital . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q6386177 wdt:P17 ?uri. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q41421 wdt:P2048 ?num . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P38&gt; &lt;http://www.wikidata.org/entity/Q861690&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pIraq WHERE { wd:Q796 wdt:P1082 ?pIraq }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?holiday WHERE { ?holiday wdt:P31 wd:Q1445650. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q7278 ; wdt:P17 wd:Q41 ; wdt:P1142 wd:Q3781399 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?date WHERE { wd:Q162371 wdt:P161 ?actor . ?actor wdt:P569 ?date . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q3235867 wdt:P50 ?person . ?person wdt:P135 ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q33999 . { ?uri wdt:P19 wd:Q183 . } UNION { ?uri wdt:P19 ?place . ?place wdt:P17 wd:Q183 . } }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q125006 wdt:P84 ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q23572 wdt:P86 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P57 wd:Q56094 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?bn WHERE { wd:Q23215 wdt:P1477 ?bn. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?album WHERE { ?album wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?date . } ORDER BY ASC(?date) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?currency WHERE { wd:Q213 wdt:P38 ?currency }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q1741 ; wdt:P20 ?deathPlace . VALUES ?deathPlace { wd:Q64 wd:Q31910788 wd:Q56036 wd:Q56037 } }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q12280 ; wdt:P177 wd:Q1142326 . } UNION { ?uri wdt:P31 wd:Q12280 ; wdt:P177 wd:Q1471 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q639669 . ?x wdt:P50 ?uri . ?x wdt:P31 wd:Q571 . } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q25014 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?writer WHERE { ?writer wdt:P31 wd:Q36180 . ?writer wdt:P166 wd:Q37922 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q596 wdt:P61 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5280538 . ?uri wdt:P106 wd:Q806349 . ?uri wdt:P1303 wd:Q119621 . ?uri wdt:P1303 wd:Q8338 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q3665646 ; wdt:P2048 ?n . FILTER ( ?n &gt; 2.0 ) }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P161 wd:Q48410 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q16 wdt:P36 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q937857 ; wdt:P19 wd:Q233 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q1009 wdt:P36 ?uri. }</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q9143 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11631. { ?uri wdt:P27 wd:Q2184. } UNION { ?uri wdt:P27 wd:Q15180. } UNION { ?uri wdt:P27 wd:Q159. } }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?creator WHERE { wd:Q5930 wdt:P170 ?creator . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?population WHERE { wd:Q1489 wdt:P1082 ?population. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q2695156 wdt:P170 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q408 wdt:P36 ?capital . ?capital wdt:P1082 ?num . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?tarea WHERE { wd:Q1198 wdt:P2046 ?tarea }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?number WHERE { VALUES ?ibm { wd:Q70096636 wd:Q37156 } ?ibm wdt:P1128 ?number. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?n WHERE { wd:Q104123 wdt:P2769 ?n . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q219512 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P17 wd:Q35 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?country WHERE { VALUES ?himalayas { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalayas wdt:P17 ?country. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?country WHERE { ?country wdt:P31 wd:Q6256 ; wdt:P2046 ?area . } ORDER BY DESC(?area) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q111135&gt; &lt;http://www.wikidata.org/entity/P170&gt; ?uri }</t>
-  </si>
-  <si>
     <t>SELECT ?o1 WHERE { &lt;http://www.wikidata.org/entity/Q1336200&gt;  &lt;http://www.wikidata.org/prop/direct/P112&gt;  ?o1 .  }</t>
   </si>
   <si>
@@ -1286,199 +986,977 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Wrong Property</t>
+  </si>
+  <si>
+    <t>Query Bad Formed</t>
+  </si>
+  <si>
+    <t>Missing P31</t>
+  </si>
+  <si>
+    <t>Structural Error</t>
+  </si>
+  <si>
+    <t>Wrong Entity</t>
+  </si>
+  <si>
+    <t>Property treated as Entity</t>
+  </si>
+  <si>
+    <t>Error Category 2</t>
+  </si>
+  <si>
+    <t>Error Category 3</t>
+  </si>
+  <si>
+    <t>Error Category 4</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { VALUES ?penguinBooks { wd:Q1336200 wd:Q3374730 } ?penguinBooks wdt:P112 ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P57 wd:Q2001 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?musical WHERE { ?musical wdt:P31 wd:Q2743 ; wdt:P86 wd:Q2808 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q40984 wdt:P178 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?x wdt:P57 wd:Q16297 ; wdt:P161 ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q38111 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?date WHERE { wd:Q53713 wdt:P570 ?date . }</t>
+  </si>
+  <si>
+    <t>['1986-02-28T00:00:00Z']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q34851&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q151973&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { wd:Q49740 wdt:P178 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?n WHERE { wd:Q2608065 wdt:P2769 ?n . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?x wdt:P31 wd:Q482994 ; wdt:P175 wd:Q303 ; wdt:P577 ?y ; wdt:P264 ?uri } ORDER BY ASC(?y) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX bd: &lt;http://www.bigdata.com/rdf#&gt; SELECT DISTINCT ?runtime WHERE { wd:Q171048 wdt:P2047 ?runtime. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5280538, wd:Q806349 ; wdt:P1303 wd:Q119621, wd:Q8338 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P57 wd:Q315087 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q241665 wdt:P569 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1324130']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q1207989 wdt:P2048 ?num . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P131 wd:Q38 ; wdt:P2044 ?num . } ORDER BY DESC(?num) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q937 wdt:P184 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?owner WHERE { ?owner wdt:P127 wd:Q22686 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P26&gt; &lt;http://www.wikidata.org/entity/Q37079&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?population WHERE { wd:Q5401 wdt:P1082 ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?Author WHERE { wd:Q726382 wdt:P50 ?Author }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:Q11806 wdt:P569 ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q458 wdt:P1082 ?europop . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?currency WHERE { wd:Q148 wdt:P38 ?currency. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?x WHERE { wd:Q692 wdt:P570 ?x } LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q41291; wdt:P448 wd:Q177477. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q131007 wdt:P178 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q4830453 . { ?uri wdt:P452 wd:Q854995 } UNION { ?uri wdt:P452 wd:Q37038 } UNION { ?uri wdt:P452 wd:Q1286627 } UNION { ?uri wdt:P452 ?industry FILTER regex(?industry, "advertising", "i") } }</t>
+  </si>
+  <si>
+    <t>['134']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?university WHERE { wd:Q567 wdt:P69 ?university. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P161 wd:Q485310 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q37079 . }</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1055332', 'http://www.wikidata.org/entity/Q108946', 'http://www.wikidata.org/entity/Q110138', 'http://www.wikidata.org/entity/Q110203', 'http://www.wikidata.org/entity/Q110278', 'http://www.wikidata.org/entity/Q1105359', 'http://www.wikidata.org/entity/Q1187607', 'http://www.wikidata.org/entity/Q1213746', 'http://www.wikidata.org/entity/Q126421540', 'http://www.wikidata.org/entity/Q129677718', 'http://www.wikidata.org/entity/Q1325589', 'http://www.wikidata.org/entity/Q1353728', 'http://www.wikidata.org/entity/Q159054', 'http://www.wikidata.org/entity/Q1741232', 'http://www.wikidata.org/entity/Q17548046', 'http://www.wikidata.org/entity/Q18811617', 'http://www.wikidata.org/entity/Q188845', 'http://www.wikidata.org/entity/Q18914855', 'http://www.wikidata.org/entity/Q202028', 'http://www.wikidata.org/entity/Q207130', 'http://www.wikidata.org/entity/Q209481', 'http://www.wikidata.org/entity/Q21168538', 'http://www.wikidata.org/entity/Q2324652', 'http://www.wikidata.org/entity/Q23759268', 'http://www.wikidata.org/entity/Q244604', 'http://www.wikidata.org/entity/Q288173', 'http://www.wikidata.org/entity/Q29261993', 'http://www.wikidata.org/entity/Q31202708', 'http://www.wikidata.org/entity/Q318910', 'http://www.wikidata.org/entity/Q3190085', 'http://www.wikidata.org/entity/Q329131', 'http://www.wikidata.org/entity/Q367163', 'http://www.wikidata.org/entity/Q380981', 'http://www.wikidata.org/entity/Q388408', 'http://www.wikidata.org/entity/Q470916', 'http://www.wikidata.org/entity/Q471159', 'http://www.wikidata.org/entity/Q498910', 'http://www.wikidata.org/entity/Q505790', 'http://www.wikidata.org/entity/Q509913', 'http://www.wikidata.org/entity/Q576635', 'http://www.wikidata.org/entity/Q588420', 'http://www.wikidata.org/entity/Q590252', 'http://www.wikidata.org/entity/Q591709', 'http://www.wikidata.org/entity/Q593099', 'http://www.wikidata.org/entity/Q603696', 'http://www.wikidata.org/entity/Q61876370', 'http://www.wikidata.org/entity/Q628154', 'http://www.wikidata.org/entity/Q638544', 'http://www.wikidata.org/entity/Q651060', 'http://www.wikidata.org/entity/Q679918', 'http://www.wikidata.org/entity/Q765677', 'http://www.wikidata.org/entity/Q821692', 'http://www.wikidata.org/entity/Q839341']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?country WHERE { wd:Q513 wdt:P131 ?country . ?country wdt:P31 wd:Q6256 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q125006 wdt:P177 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q10843402 ; wdt:P19 wd:Q649 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q103894 ; wdt:P577 ?date . } ORDER BY DESC(?date) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q945543']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pop WHERE { VALUES (?cairo) { (wd:Q85) (wd:Q20230483) } ?cairo wdt:P1082 ?pop. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q5 ; wdt:P19 wd:Q160544 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { wd:Q34969 wdt:P40 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?ele WHERE { wd:Q58226 wdt:P2044 ?ele } LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q5806 wdt:P17 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?height WHERE { wd:Q76717 wdt:P2048 ?height . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q1163227 wdt:P50 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?genre WHERE { wd:Q189080 wdt:P136 ?genre. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?place WHERE { wd:Q40912 wdt:P19 ?place. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q515 ; wdt:P1082 ?pop } ORDER BY ASC(?pop) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q8704 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q10541207', 'http://www.wikidata.org/entity/Q10685840', 'http://www.wikidata.org/entity/Q10689144', 'http://www.wikidata.org/entity/Q124498859', 'http://www.wikidata.org/entity/Q1661478', 'http://www.wikidata.org/entity/Q19978123', 'http://www.wikidata.org/entity/Q200982', 'http://www.wikidata.org/entity/Q3013206', 'http://www.wikidata.org/entity/Q883628']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?ni WHERE { &lt;http://www.wikidata.org/entity/Q312&gt; &lt;http://www.wikidata.org/entity/P2295&gt; ?ni }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q91 wdt:P20 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?capital WHERE { VALUES ?himalaya { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalaya wdt:P17 ?country . ?country wdt:P36 ?capital . }</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1362', 'http://www.wikidata.org/entity/Q3037', 'http://www.wikidata.org/entity/Q3630', 'http://www.wikidata.org/entity/Q37400', 'http://www.wikidata.org/entity/Q5838', 'http://www.wikidata.org/entity/Q9270', 'http://www.wikidata.org/entity/Q956', 'http://www.wikidata.org/entity/Q987']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q6386177 wdt:P17 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q41421 wdt:P2048 ?num . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P38&gt; &lt;http://www.wikidata.org/entity/Q861690&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pIraq WHERE { wd:Q796 wdt:P1082 ?pIraq }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?holiday WHERE { ?holiday wdt:P31 wd:Q1445650. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q7278 ; wdt:P17 wd:Q41 ; wdt:P1142 wd:Q3781399 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?date WHERE { wd:Q162371 wdt:P161 ?actor . ?actor wdt:P569 ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q3235867 wdt:P50 ?person . ?person wdt:P135 ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q33999 . { ?uri wdt:P19 wd:Q183 . } UNION { ?uri wdt:P19 ?place . ?place wdt:P17 wd:Q183 . } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q125006 wdt:P84 ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q23572 wdt:P86 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P57 wd:Q56094 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?bn WHERE { wd:Q23215 wdt:P1477 ?bn. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?album WHERE { ?album wdt:P31 wd:Q482994 ; wdt:P175 wd:Q15862 ; wdt:P577 ?date . } ORDER BY ASC(?date) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?currency WHERE { wd:Q213 wdt:P38 ?currency }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q1741 ; wdt:P20 ?deathPlace . VALUES ?deathPlace { wd:Q64 wd:Q31910788 wd:Q56036 wd:Q56037 } }</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q112469746', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q1468949', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q15436531', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1692321', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q43382717', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q5946570', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q697055', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q78934', 'http://www.wikidata.org/entity/Q78936', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q85051', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q94836008', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q95896169', 'http://www.wikidata.org/entity/Q96452']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q12280 ; wdt:P177 wd:Q1142326 . } UNION { ?uri wdt:P31 wd:Q12280 ; wdt:P177 wd:Q1471 . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q476028 ; wdt:P118 wd:Q82595 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 49,\n        "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q38111 . }",\n        "startIndex": 49,\n        "stopIndex": 55\n    },\n    "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q38111 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 30,\n        "query": "SELECT DISTINCT ?date WHERE { wd:Q53713 wdt:P570 ?date . }",\n        "startIndex": 30,\n        "stopIndex": 38\n    },\n    "query": "SELECT DISTINCT ?date WHERE { wd:Q53713 wdt:P570 ?date . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 29,\n        "query": "SELECT DISTINCT ?uri WHERE { wd:Q49740 wdt:P178 ?uri }",\n        "startIndex": 29,\n        "stopIndex": 37\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { wd:Q49740 wdt:P178 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P57 wd:Q315087 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P57 wd:Q315087 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 32,\n        "query": "SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) OFFSET 0 LIMIT 1",\n        "startIndex": 32,\n        "stopIndex": 39\n    },\n    "query": "SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q41291; wdt:P448 wd:Q177477. }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q41291; wdt:P448 wd:Q177477. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 49,\n        "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q4830453 . { ?uri wdt:P452 wd:Q854995 } UNION { ?uri wdt:P452 wd:Q37038 } UNION { ?uri wdt:P452 wd:Q1286627 } UNION { ?uri wdt:P452 ?industry FILTER regex(?industry, \\"advertising\\", \\"i\\") } }",\n        "startIndex": 49,\n        "stopIndex": 55\n    },\n    "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q4830453 . { ?uri wdt:P452 wd:Q854995 } UNION { ?uri wdt:P452 wd:Q37038 } UNION { ?uri wdt:P452 wd:Q1286627 } UNION { ?uri wdt:P452 ?industry FILTER regex(?industry, \\"advertising\\", \\"i\\") } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q37079 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q37079 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 29,\n        "query": "SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri. }",\n        "startIndex": 29,\n        "stopIndex": 36\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q10843402 ; wdt:P19 wd:Q649 . }",\n        "startIndex": 34,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q10843402 ; wdt:P19 wd:Q649 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 31,\n        "query": "SELECT DISTINCT ?genre WHERE { wd:Q189080 wdt:P136 ?genre. }",\n        "startIndex": 31,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?genre WHERE { wd:Q189080 wdt:P136 ?genre. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q1445650 ; wdt:P17 wd:Q34 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 52,\n        "query": "SELECT DISTINCT ?capital WHERE { VALUES ?himalaya { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalaya wdt:P17 ?country . ?country wdt:P36 ?capital . }",\n        "startIndex": 52,\n        "stopIndex": 64\n    },\n    "query": "SELECT DISTINCT ?capital WHERE { VALUES ?himalaya { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalaya wdt:P17 ?country . ?country wdt:P36 ?capital . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q43203 ; wdt:P161 wd:Q43203 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q7278 ; wdt:P17 wd:Q41 ; wdt:P1142 wd:Q3781399 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q7278 ; wdt:P17 wd:Q41 ; wdt:P1142 wd:Q3781399 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 30,\n        "query": "SELECT DISTINCT ?date WHERE { wd:Q162371 wdt:P161 ?actor . ?actor wdt:P569 ?date . }",\n        "startIndex": 30,\n        "stopIndex": 39\n    },\n    "query": "SELECT DISTINCT ?date WHERE { wd:Q162371 wdt:P161 ?actor . ?actor wdt:P569 ?date . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q33999 . { ?uri wdt:P19 wd:Q183 . } UNION { ?uri wdt:P19 ?place . ?place wdt:P17 wd:Q183 . } }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q33999 . { ?uri wdt:P19 wd:Q183 . } UNION { ?uri wdt:P19 ?place . ?place wdt:P17 wd:Q183 . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q1741 ; wdt:P20 ?deathPlace . VALUES ?deathPlace { wd:Q64 wd:Q31910788 wd:Q56036 wd:Q56037 } }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q1741 ; wdt:P20 ?deathPlace . VALUES ?deathPlace { wd:Q64 wd:Q31910788 wd:Q56036 wd:Q56037 } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting &lt;EOF&gt;",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 79,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q12280 ; wdt:P177 wd:Q1142326 . } UNION { ?uri wdt:P31 wd:Q12280 ; wdt:P177 wd:Q1471 . }",\n        "startIndex": 79,\n        "stopIndex": 83\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q12280 ; wdt:P177 wd:Q1142326 . } UNION { ?uri wdt:P31 wd:Q12280 ; wdt:P177 wd:Q1471 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q639669 . ?x wdt:P50 ?uri . ?x wdt:P31 wd:Q571 . } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1",\n        "startIndex": 34,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q639669 . ?x wdt:P50 ?uri . ?x wdt:P31 wd:Q571 . } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q25014 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q25014 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 40,\n        "query": "SELECT DISTINCT ?writer WHERE { ?writer wdt:P31 wd:Q36180 . ?writer wdt:P166 wd:Q37922 . }",\n        "startIndex": 40,\n        "stopIndex": 46\n    },\n    "query": "SELECT DISTINCT ?writer WHERE { ?writer wdt:P31 wd:Q36180 . ?writer wdt:P166 wd:Q37922 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5280538 . ?uri wdt:P106 wd:Q806349 . ?uri wdt:P1303 wd:Q119621 . ?uri wdt:P1303 wd:Q8338 . }",\n        "startIndex": 34,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5280538 . ?uri wdt:P106 wd:Q806349 . ?uri wdt:P1303 wd:Q119621 . ?uri wdt:P1303 wd:Q8338 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q3665646 ; wdt:P2048 ?n . FILTER ( ?n &gt; 2.0 ) }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q3665646 ; wdt:P2048 ?n . FILTER ( ?n &gt; 2.0 ) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q937857 ; wdt:P19 wd:Q233 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q937857 ; wdt:P19 wd:Q233 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 49,\n        "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q9143 . }",\n        "startIndex": 49,\n        "stopIndex": 55\n    },\n    "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q9143 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11631. { ?uri wdt:P27 wd:Q2184. } UNION { ?uri wdt:P27 wd:Q15180. } UNION { ?uri wdt:P27 wd:Q159. } }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11631. { ?uri wdt:P27 wd:Q2184. } UNION { ?uri wdt:P27 wd:Q15180. } UNION { ?uri wdt:P27 wd:Q159. } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 46,\n        "query": "SELECT DISTINCT ?number WHERE { VALUES ?ibm { wd:Q70096636 wd:Q37156 } ?ibm wdt:P1128 ?number. }",\n        "startIndex": 46,\n        "stopIndex": 57\n    },\n    "query": "SELECT DISTINCT ?number WHERE { VALUES ?ibm { wd:Q70096636 wd:Q37156 } ?ibm wdt:P1128 ?number. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q219512 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q219512 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P17 wd:Q35 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P17 wd:Q35 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 53,\n        "query": "SELECT DISTINCT ?country WHERE { VALUES ?himalayas { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalayas wdt:P17 ?country. }",\n        "startIndex": 53,\n        "stopIndex": 65\n    },\n    "query": "SELECT DISTINCT ?country WHERE { VALUES ?himalayas { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalayas wdt:P17 ?country. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>Wrong Property</t>
-  </si>
-  <si>
-    <t>Query Bad Formed</t>
-  </si>
-  <si>
-    <t>Missing P31</t>
-  </si>
-  <si>
-    <t>Structural Error</t>
-  </si>
-  <si>
-    <t>Wrong Entity</t>
-  </si>
-  <si>
-    <t>Property treated as Entity</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting &lt;EOF&gt;",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 79,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q12280 ; wdt:P177 wd:Q1142326 . } UNION { ?uri wdt:P31 wd:Q12280 ; wdt:P177 wd:Q1471 . }",\n        "startIndex": 377,\n        "stopIndex": 381\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q12280 ; wdt:P177 wd:Q1142326 . } UNION { ?uri wdt:P31 wd:Q12280 ; wdt:P177 wd:Q1471 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q639669 . ?x wdt:P50 ?uri . ?x wdt:P31 wd:Q571 . } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q6069405']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416 ; wdt:P170 wd:Q25014 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?writer WHERE { ?writer wdt:P31 wd:Q36180 . ?writer wdt:P166 wd:Q37922 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q596 wdt:P61 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5280538 . ?uri wdt:P106 wd:Q806349 . ?uri wdt:P1303 wd:Q119621 . ?uri wdt:P1303 wd:Q8338 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q3665646 ; wdt:P2048 ?n . FILTER ( ?n &gt; 2.0 ) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P161 wd:Q48410 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q16 wdt:P36 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q937857 ; wdt:P19 wd:Q233 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q1009 wdt:P36 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q9143 . }</t>
+  </si>
+  <si>
+    <t>['1487']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11631. { ?uri wdt:P27 wd:Q2184. } UNION { ?uri wdt:P27 wd:Q15180. } UNION { ?uri wdt:P27 wd:Q159. } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?creator WHERE { wd:Q5930 wdt:P170 ?creator . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?population WHERE { wd:Q1489 wdt:P1082 ?population. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q2695156 wdt:P170 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q408 wdt:P36 ?capital . ?capital wdt:P1082 ?num . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?tarea WHERE { wd:Q1198 wdt:P2046 ?tarea }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?number WHERE { VALUES ?ibm { wd:Q70096636 wd:Q37156 } ?ibm wdt:P1128 ?number. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?n WHERE { wd:Q104123 wdt:P2769 ?n . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q219512 . }</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q29658', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q978927']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P17 wd:Q35 . }</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q20494829']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?country WHERE { VALUES ?himalayas { wd:Q105981852 wd:Q26235529 wd:Q5451 } ?himalayas wdt:P17 ?country. }</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q252', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?country WHERE { ?country wdt:P31 wd:Q6256 ; wdt:P2046 ?area . } ORDER BY DESC(?area) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q111135&gt; &lt;http://www.wikidata.org/entity/P170&gt; ?uri }</t>
   </si>
 </sst>
 </file>
@@ -1846,13 +2324,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1877,25 +2355,34 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
-        <v>308</v>
-      </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="F2" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1904,24 +2391,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>209</v>
       </c>
-      <c r="D3" t="s">
-        <v>309</v>
-      </c>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1930,50 +2417,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>210</v>
       </c>
-      <c r="D4" t="s">
-        <v>310</v>
-      </c>
       <c r="E4" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
       <c r="F4" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="I4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" t="s">
         <v>111</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>211</v>
       </c>
-      <c r="D5" t="s">
-        <v>311</v>
-      </c>
       <c r="E5" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1982,258 +2472,270 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" t="s">
-        <v>212</v>
-      </c>
       <c r="D6" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="E6" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="F6" t="s">
-        <v>421</v>
+        <v>320</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" t="s">
         <v>113</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>213</v>
       </c>
-      <c r="D7" t="s">
-        <v>313</v>
-      </c>
       <c r="E7" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="F7" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="I7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" t="s">
         <v>114</v>
       </c>
-      <c r="C8" t="s">
-        <v>214</v>
-      </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="E8" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
       <c r="F8" t="s">
-        <v>422</v>
+        <v>320</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" t="s">
-        <v>215</v>
-      </c>
       <c r="D9" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="E9" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="F9" t="s">
-        <v>423</v>
+        <v>320</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" t="s">
         <v>116</v>
       </c>
-      <c r="C10" t="s">
-        <v>216</v>
-      </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="E10" t="s">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="F10" t="s">
-        <v>424</v>
+        <v>320</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" t="s">
         <v>117</v>
       </c>
-      <c r="C11" t="s">
-        <v>217</v>
-      </c>
       <c r="D11" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
       <c r="F11" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" t="s">
         <v>118</v>
       </c>
-      <c r="C12" t="s">
-        <v>218</v>
-      </c>
       <c r="D12" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="E12" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="F12" t="s">
-        <v>425</v>
+        <v>320</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13" t="s">
         <v>119</v>
       </c>
-      <c r="C13" t="s">
-        <v>219</v>
-      </c>
       <c r="D13" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E13" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="F13" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" t="s">
         <v>120</v>
       </c>
-      <c r="C14" t="s">
-        <v>220</v>
-      </c>
       <c r="D14" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="E14" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="F14" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I14" t="s">
+        <v>325</v>
+      </c>
+      <c r="J14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" t="s">
         <v>121</v>
       </c>
-      <c r="C15" t="s">
-        <v>221</v>
-      </c>
       <c r="D15" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="E15" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="F15" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2242,128 +2744,134 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
-        <v>222</v>
-      </c>
       <c r="D16" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E16" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="F16" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="I16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C17" t="s">
         <v>123</v>
       </c>
-      <c r="C17" t="s">
-        <v>223</v>
-      </c>
       <c r="D17" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="E17" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="F17" t="s">
-        <v>426</v>
+        <v>320</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" t="s">
         <v>124</v>
       </c>
-      <c r="C18" t="s">
-        <v>224</v>
-      </c>
       <c r="D18" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="E18" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="F18" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" t="s">
         <v>125</v>
       </c>
-      <c r="C19" t="s">
-        <v>225</v>
-      </c>
       <c r="D19" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="E19" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="F19" t="s">
-        <v>427</v>
+        <v>320</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I19" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
+        <v>350</v>
+      </c>
+      <c r="C20" t="s">
         <v>126</v>
       </c>
-      <c r="C20" t="s">
-        <v>226</v>
-      </c>
       <c r="D20" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="F20" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2372,50 +2880,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
+        <v>351</v>
+      </c>
+      <c r="C21" t="s">
         <v>127</v>
       </c>
-      <c r="C21" t="s">
-        <v>227</v>
-      </c>
       <c r="D21" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="F21" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
+        <v>352</v>
+      </c>
+      <c r="C22" t="s">
         <v>128</v>
       </c>
-      <c r="C22" t="s">
-        <v>228</v>
-      </c>
       <c r="D22" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="E22" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="F22" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2424,76 +2932,85 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
+        <v>353</v>
+      </c>
+      <c r="C23" t="s">
         <v>129</v>
       </c>
-      <c r="C23" t="s">
-        <v>229</v>
-      </c>
       <c r="D23" t="s">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="E23" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="F23" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="I23" t="s">
+        <v>325</v>
+      </c>
+      <c r="J23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
+        <v>354</v>
+      </c>
+      <c r="C24" t="s">
         <v>130</v>
       </c>
-      <c r="C24" t="s">
-        <v>230</v>
-      </c>
       <c r="D24" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E24" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
       <c r="F24" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+      <c r="I24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
+        <v>355</v>
+      </c>
+      <c r="C25" t="s">
         <v>131</v>
       </c>
-      <c r="C25" t="s">
-        <v>231</v>
-      </c>
       <c r="D25" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="F25" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -2502,24 +3019,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" t="s">
         <v>132</v>
       </c>
-      <c r="C26" t="s">
-        <v>232</v>
-      </c>
       <c r="D26" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="F26" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2528,24 +3045,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
+        <v>357</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
       </c>
-      <c r="C27" t="s">
-        <v>233</v>
-      </c>
       <c r="D27" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="E27" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="F27" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -2554,24 +3071,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
+        <v>358</v>
+      </c>
+      <c r="C28" t="s">
         <v>134</v>
       </c>
-      <c r="C28" t="s">
-        <v>234</v>
-      </c>
       <c r="D28" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="F28" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -2580,24 +3097,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
+        <v>359</v>
+      </c>
+      <c r="C29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" t="s">
-        <v>235</v>
-      </c>
       <c r="D29" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="E29" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="F29" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -2606,24 +3123,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
+        <v>360</v>
+      </c>
+      <c r="C30" t="s">
         <v>136</v>
       </c>
-      <c r="C30" t="s">
-        <v>236</v>
-      </c>
       <c r="D30" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="E30" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="F30" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -2632,76 +3149,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
+        <v>361</v>
+      </c>
+      <c r="C31" t="s">
         <v>137</v>
       </c>
-      <c r="C31" t="s">
-        <v>237</v>
-      </c>
       <c r="D31" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="E31" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="F31" t="s">
-        <v>428</v>
+        <v>320</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I31" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
+        <v>362</v>
+      </c>
+      <c r="C32" t="s">
         <v>138</v>
       </c>
-      <c r="C32" t="s">
-        <v>238</v>
-      </c>
       <c r="D32" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="E32" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="F32" t="s">
-        <v>429</v>
+        <v>320</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
+        <v>363</v>
+      </c>
+      <c r="C33" t="s">
         <v>139</v>
       </c>
-      <c r="C33" t="s">
-        <v>239</v>
-      </c>
       <c r="D33" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="E33" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="F33" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -2710,180 +3230,204 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
+        <v>364</v>
+      </c>
+      <c r="C34" t="s">
         <v>140</v>
       </c>
-      <c r="C34" t="s">
-        <v>240</v>
-      </c>
       <c r="D34" t="s">
-        <v>312</v>
+        <v>365</v>
       </c>
       <c r="E34" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="F34" t="s">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I34" t="s">
+        <v>325</v>
+      </c>
+      <c r="J34" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
+        <v>366</v>
+      </c>
+      <c r="C35" t="s">
         <v>141</v>
       </c>
-      <c r="C35" t="s">
-        <v>241</v>
-      </c>
       <c r="D35" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
       <c r="F35" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="I35" t="s">
+        <v>325</v>
+      </c>
+      <c r="J35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
+        <v>367</v>
+      </c>
+      <c r="C36" t="s">
         <v>142</v>
       </c>
-      <c r="C36" t="s">
-        <v>242</v>
-      </c>
       <c r="D36" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E36" t="s">
-        <v>382</v>
+        <v>282</v>
       </c>
       <c r="F36" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
+        <v>368</v>
+      </c>
+      <c r="C37" t="s">
         <v>143</v>
       </c>
-      <c r="C37" t="s">
-        <v>243</v>
-      </c>
       <c r="D37" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="E37" t="s">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="F37" t="s">
-        <v>431</v>
+        <v>320</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I37" t="s">
+        <v>325</v>
+      </c>
+      <c r="J37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
+        <v>370</v>
+      </c>
+      <c r="C38" t="s">
         <v>144</v>
       </c>
-      <c r="C38" t="s">
-        <v>244</v>
-      </c>
       <c r="D38" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E38" t="s">
-        <v>384</v>
+        <v>284</v>
       </c>
       <c r="F38" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I38" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
+        <v>371</v>
+      </c>
+      <c r="C39" t="s">
         <v>145</v>
       </c>
-      <c r="C39" t="s">
-        <v>245</v>
-      </c>
       <c r="D39" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="E39" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="F39" t="s">
-        <v>432</v>
+        <v>320</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
+        <v>372</v>
+      </c>
+      <c r="C40" t="s">
         <v>146</v>
       </c>
-      <c r="C40" t="s">
-        <v>246</v>
-      </c>
       <c r="D40" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="E40" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="F40" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -2892,50 +3436,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
+        <v>373</v>
+      </c>
+      <c r="C41" t="s">
         <v>147</v>
       </c>
-      <c r="C41" t="s">
-        <v>247</v>
-      </c>
       <c r="D41" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="E41" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="F41" t="s">
-        <v>433</v>
+        <v>320</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
+        <v>374</v>
+      </c>
+      <c r="C42" t="s">
         <v>148</v>
       </c>
-      <c r="C42" t="s">
-        <v>248</v>
-      </c>
       <c r="D42" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="E42" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="F42" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -2944,50 +3488,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
+        <v>375</v>
+      </c>
+      <c r="C43" t="s">
         <v>149</v>
       </c>
-      <c r="C43" t="s">
-        <v>249</v>
-      </c>
       <c r="D43" t="s">
-        <v>312</v>
+        <v>376</v>
       </c>
       <c r="E43" t="s">
-        <v>387</v>
+        <v>287</v>
       </c>
       <c r="F43" t="s">
-        <v>434</v>
+        <v>320</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I43" t="s">
+        <v>325</v>
+      </c>
+      <c r="J43" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
+        <v>377</v>
+      </c>
+      <c r="C44" t="s">
         <v>150</v>
       </c>
-      <c r="C44" t="s">
-        <v>250</v>
-      </c>
       <c r="D44" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="E44" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="F44" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -2996,50 +3546,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
+        <v>378</v>
+      </c>
+      <c r="C45" t="s">
         <v>151</v>
       </c>
-      <c r="C45" t="s">
-        <v>251</v>
-      </c>
       <c r="D45" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="E45" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="F45" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
+        <v>379</v>
+      </c>
+      <c r="C46" t="s">
         <v>152</v>
       </c>
-      <c r="C46" t="s">
-        <v>252</v>
-      </c>
       <c r="D46" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="E46" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="F46" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -3048,24 +3598,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
+        <v>380</v>
+      </c>
+      <c r="C47" t="s">
         <v>153</v>
       </c>
-      <c r="C47" t="s">
-        <v>253</v>
-      </c>
       <c r="D47" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="E47" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="F47" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -3074,24 +3624,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C48" t="s">
         <v>154</v>
       </c>
-      <c r="C48" t="s">
-        <v>254</v>
-      </c>
       <c r="D48" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="E48" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="F48" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -3100,24 +3650,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
+        <v>382</v>
+      </c>
+      <c r="C49" t="s">
         <v>155</v>
       </c>
-      <c r="C49" t="s">
-        <v>255</v>
-      </c>
       <c r="D49" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="E49" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="F49" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -3126,24 +3676,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
+        <v>383</v>
+      </c>
+      <c r="C50" t="s">
         <v>156</v>
       </c>
-      <c r="C50" t="s">
-        <v>256</v>
-      </c>
       <c r="D50" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="E50" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="F50" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -3152,50 +3702,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
+        <v>384</v>
+      </c>
+      <c r="C51" t="s">
         <v>157</v>
       </c>
-      <c r="C51" t="s">
-        <v>257</v>
-      </c>
       <c r="D51" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="E51" t="s">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="F51" t="s">
-        <v>435</v>
+        <v>320</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
+        <v>385</v>
+      </c>
+      <c r="C52" t="s">
         <v>158</v>
       </c>
-      <c r="C52" t="s">
-        <v>258</v>
-      </c>
       <c r="D52" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="E52" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="F52" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -3204,24 +3754,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
+        <v>386</v>
+      </c>
+      <c r="C53" t="s">
         <v>159</v>
       </c>
-      <c r="C53" t="s">
-        <v>259</v>
-      </c>
       <c r="D53" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="F53" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -3230,102 +3780,111 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
+        <v>387</v>
+      </c>
+      <c r="C54" t="s">
         <v>160</v>
       </c>
-      <c r="C54" t="s">
-        <v>260</v>
-      </c>
       <c r="D54" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E54" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="F54" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
+        <v>388</v>
+      </c>
+      <c r="C55" t="s">
         <v>161</v>
       </c>
-      <c r="C55" t="s">
-        <v>261</v>
-      </c>
       <c r="D55" t="s">
-        <v>312</v>
+        <v>389</v>
       </c>
       <c r="E55" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
       <c r="F55" t="s">
-        <v>436</v>
+        <v>320</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I55" t="s">
+        <v>325</v>
+      </c>
+      <c r="J55" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
+        <v>390</v>
+      </c>
+      <c r="C56" t="s">
         <v>162</v>
       </c>
-      <c r="C56" t="s">
-        <v>262</v>
-      </c>
       <c r="D56" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E56" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c r="F56" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+      <c r="I56" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
+        <v>391</v>
+      </c>
+      <c r="C57" t="s">
         <v>163</v>
       </c>
-      <c r="C57" t="s">
-        <v>263</v>
-      </c>
       <c r="D57" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="E57" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="F57" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -3334,50 +3893,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="s">
+        <v>392</v>
+      </c>
+      <c r="C58" t="s">
         <v>164</v>
       </c>
-      <c r="C58" t="s">
-        <v>264</v>
-      </c>
       <c r="D58" t="s">
-        <v>312</v>
+        <v>393</v>
       </c>
       <c r="E58" t="s">
-        <v>393</v>
+        <v>293</v>
       </c>
       <c r="F58" t="s">
-        <v>437</v>
+        <v>320</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I58" t="s">
+        <v>325</v>
+      </c>
+      <c r="J58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="s">
+        <v>394</v>
+      </c>
+      <c r="C59" t="s">
         <v>165</v>
       </c>
-      <c r="C59" t="s">
-        <v>265</v>
-      </c>
       <c r="D59" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="E59" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="F59" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -3386,24 +3951,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
+        <v>395</v>
+      </c>
+      <c r="C60" t="s">
         <v>166</v>
       </c>
-      <c r="C60" t="s">
-        <v>266</v>
-      </c>
       <c r="D60" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="E60" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="F60" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -3412,76 +3977,76 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="s">
+        <v>396</v>
+      </c>
+      <c r="C61" t="s">
         <v>167</v>
       </c>
-      <c r="C61" t="s">
-        <v>267</v>
-      </c>
       <c r="D61" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="E61" t="s">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="F61" t="s">
-        <v>438</v>
+        <v>320</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="s">
+        <v>397</v>
+      </c>
+      <c r="C62" t="s">
         <v>168</v>
       </c>
-      <c r="C62" t="s">
-        <v>268</v>
-      </c>
       <c r="D62" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E62" t="s">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="F62" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="s">
+        <v>398</v>
+      </c>
+      <c r="C63" t="s">
         <v>169</v>
       </c>
-      <c r="C63" t="s">
-        <v>269</v>
-      </c>
       <c r="D63" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="E63" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="F63" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3490,154 +4055,163 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
+        <v>399</v>
+      </c>
+      <c r="C64" t="s">
         <v>170</v>
       </c>
-      <c r="C64" t="s">
-        <v>270</v>
-      </c>
       <c r="D64" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="E64" t="s">
-        <v>396</v>
+        <v>296</v>
       </c>
       <c r="F64" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I64" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
+        <v>400</v>
+      </c>
+      <c r="C65" t="s">
         <v>171</v>
       </c>
-      <c r="C65" t="s">
-        <v>271</v>
-      </c>
       <c r="D65" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="E65" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
       <c r="F65" t="s">
-        <v>439</v>
+        <v>320</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
+        <v>401</v>
+      </c>
+      <c r="C66" t="s">
         <v>172</v>
       </c>
-      <c r="C66" t="s">
-        <v>272</v>
-      </c>
       <c r="D66" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E66" t="s">
-        <v>398</v>
+        <v>298</v>
       </c>
       <c r="F66" t="s">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
+        <v>402</v>
+      </c>
+      <c r="C67" t="s">
         <v>173</v>
       </c>
-      <c r="C67" t="s">
-        <v>273</v>
-      </c>
       <c r="D67" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E67" t="s">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F67" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
+        <v>403</v>
+      </c>
+      <c r="C68" t="s">
         <v>174</v>
       </c>
-      <c r="C68" t="s">
-        <v>274</v>
-      </c>
       <c r="D68" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="E68" t="s">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F68" t="s">
-        <v>441</v>
+        <v>320</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I68" t="s">
+        <v>325</v>
+      </c>
+      <c r="J68" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
+        <v>404</v>
+      </c>
+      <c r="C69" t="s">
         <v>175</v>
       </c>
-      <c r="C69" t="s">
-        <v>275</v>
-      </c>
       <c r="D69" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="E69" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="F69" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -3646,24 +4220,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
+        <v>405</v>
+      </c>
+      <c r="C70" t="s">
         <v>176</v>
       </c>
-      <c r="C70" t="s">
-        <v>276</v>
-      </c>
       <c r="D70" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="E70" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="F70" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -3672,50 +4246,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
+        <v>406</v>
+      </c>
+      <c r="C71" t="s">
         <v>177</v>
       </c>
-      <c r="C71" t="s">
-        <v>277</v>
-      </c>
       <c r="D71" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="E71" t="s">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="F71" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
+        <v>407</v>
+      </c>
+      <c r="C72" t="s">
         <v>178</v>
       </c>
-      <c r="C72" t="s">
-        <v>278</v>
-      </c>
       <c r="D72" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="E72" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="F72" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -3724,24 +4298,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
+        <v>408</v>
+      </c>
+      <c r="C73" t="s">
         <v>179</v>
       </c>
-      <c r="C73" t="s">
-        <v>279</v>
-      </c>
       <c r="D73" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="E73" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="F73" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
@@ -3750,24 +4324,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="s">
+        <v>409</v>
+      </c>
+      <c r="C74" t="s">
         <v>180</v>
       </c>
-      <c r="C74" t="s">
-        <v>280</v>
-      </c>
       <c r="D74" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="E74" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F74" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -3776,154 +4350,175 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="s">
+        <v>410</v>
+      </c>
+      <c r="C75" t="s">
         <v>181</v>
       </c>
-      <c r="C75" t="s">
-        <v>281</v>
-      </c>
       <c r="D75" t="s">
-        <v>312</v>
+        <v>411</v>
       </c>
       <c r="E75" t="s">
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="F75" t="s">
-        <v>442</v>
+        <v>320</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I75" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="s">
+        <v>412</v>
+      </c>
+      <c r="C76" t="s">
         <v>182</v>
       </c>
-      <c r="C76" t="s">
-        <v>282</v>
-      </c>
       <c r="D76" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E76" t="s">
-        <v>403</v>
+        <v>303</v>
       </c>
       <c r="F76" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I76" t="s">
+        <v>325</v>
+      </c>
+      <c r="J76" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="s">
+        <v>414</v>
+      </c>
+      <c r="C77" t="s">
         <v>183</v>
       </c>
-      <c r="C77" t="s">
-        <v>283</v>
-      </c>
       <c r="D77" t="s">
-        <v>312</v>
+        <v>415</v>
       </c>
       <c r="E77" t="s">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="F77" t="s">
-        <v>444</v>
+        <v>320</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I77" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="s">
+        <v>416</v>
+      </c>
+      <c r="C78" t="s">
         <v>184</v>
       </c>
-      <c r="C78" t="s">
-        <v>284</v>
-      </c>
       <c r="D78" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="E78" t="s">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="F78" t="s">
-        <v>445</v>
+        <v>320</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I78" t="s">
+        <v>325</v>
+      </c>
+      <c r="J78" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
+        <v>417</v>
+      </c>
+      <c r="C79" t="s">
         <v>185</v>
       </c>
-      <c r="C79" t="s">
-        <v>285</v>
-      </c>
       <c r="D79" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="E79" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
       <c r="F79" t="s">
-        <v>446</v>
+        <v>320</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I79" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="s">
+        <v>418</v>
+      </c>
+      <c r="C80" t="s">
         <v>186</v>
       </c>
-      <c r="C80" t="s">
-        <v>286</v>
-      </c>
       <c r="D80" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="E80" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="F80" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
@@ -3932,76 +4527,88 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="s">
+        <v>419</v>
+      </c>
+      <c r="C81" t="s">
         <v>187</v>
       </c>
-      <c r="C81" t="s">
-        <v>287</v>
-      </c>
       <c r="D81" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="E81" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
       <c r="F81" t="s">
-        <v>447</v>
+        <v>320</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I81" t="s">
+        <v>325</v>
+      </c>
+      <c r="J81" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
+        <v>420</v>
+      </c>
+      <c r="C82" t="s">
         <v>188</v>
       </c>
-      <c r="C82" t="s">
-        <v>288</v>
-      </c>
       <c r="D82" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="E82" t="s">
-        <v>408</v>
+        <v>308</v>
       </c>
       <c r="F82" t="s">
-        <v>448</v>
+        <v>320</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I82" t="s">
+        <v>321</v>
+      </c>
+      <c r="J82" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
+        <v>421</v>
+      </c>
+      <c r="C83" t="s">
         <v>189</v>
       </c>
-      <c r="C83" t="s">
-        <v>289</v>
-      </c>
       <c r="D83" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="E83" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="F83" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
@@ -4010,24 +4617,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="s">
+        <v>422</v>
+      </c>
+      <c r="C84" t="s">
         <v>190</v>
       </c>
-      <c r="C84" t="s">
-        <v>290</v>
-      </c>
       <c r="D84" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="E84" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="F84" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
@@ -4036,50 +4643,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
+        <v>423</v>
+      </c>
+      <c r="C85" t="s">
         <v>191</v>
       </c>
-      <c r="C85" t="s">
-        <v>291</v>
-      </c>
       <c r="D85" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="E85" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
       <c r="F85" t="s">
-        <v>449</v>
+        <v>320</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I85" t="s">
+        <v>321</v>
+      </c>
+      <c r="J85" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="s">
+        <v>424</v>
+      </c>
+      <c r="C86" t="s">
         <v>192</v>
       </c>
-      <c r="C86" t="s">
-        <v>292</v>
-      </c>
       <c r="D86" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="E86" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="F86" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -4088,76 +4701,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="s">
+        <v>425</v>
+      </c>
+      <c r="C87" t="s">
         <v>193</v>
       </c>
-      <c r="C87" t="s">
-        <v>293</v>
-      </c>
       <c r="D87" t="s">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="E87" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="F87" t="s">
-        <v>450</v>
+        <v>320</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I87" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="s">
+        <v>427</v>
+      </c>
+      <c r="C88" t="s">
         <v>194</v>
       </c>
-      <c r="C88" t="s">
-        <v>294</v>
-      </c>
       <c r="D88" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="E88" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="F88" t="s">
-        <v>451</v>
+        <v>320</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I88" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="s">
+        <v>428</v>
+      </c>
+      <c r="C89" t="s">
         <v>195</v>
       </c>
-      <c r="C89" t="s">
-        <v>295</v>
-      </c>
       <c r="D89" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="E89" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="F89" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -4166,24 +4785,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="s">
+        <v>429</v>
+      </c>
+      <c r="C90" t="s">
         <v>196</v>
       </c>
-      <c r="C90" t="s">
-        <v>296</v>
-      </c>
       <c r="D90" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="E90" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="F90" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -4192,24 +4811,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="s">
+        <v>430</v>
+      </c>
+      <c r="C91" t="s">
         <v>197</v>
       </c>
-      <c r="C91" t="s">
-        <v>297</v>
-      </c>
       <c r="D91" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="E91" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="F91" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -4218,24 +4837,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="s">
+        <v>431</v>
+      </c>
+      <c r="C92" t="s">
         <v>198</v>
       </c>
-      <c r="C92" t="s">
-        <v>298</v>
-      </c>
       <c r="D92" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="E92" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="F92" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
@@ -4244,24 +4863,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="s">
+        <v>432</v>
+      </c>
+      <c r="C93" t="s">
         <v>199</v>
       </c>
-      <c r="C93" t="s">
-        <v>299</v>
-      </c>
       <c r="D93" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
       <c r="E93" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
       <c r="F93" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -4270,212 +4889,233 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="s">
+        <v>433</v>
+      </c>
+      <c r="C94" t="s">
         <v>200</v>
-      </c>
-      <c r="C94" t="s">
-        <v>300</v>
       </c>
       <c r="D94" t="s">
         <v>312</v>
       </c>
       <c r="E94" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="F94" t="s">
-        <v>452</v>
+        <v>320</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="s">
+        <v>434</v>
+      </c>
+      <c r="C95" t="s">
         <v>201</v>
       </c>
-      <c r="C95" t="s">
-        <v>301</v>
-      </c>
       <c r="D95" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E95" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="F95" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="s">
+        <v>435</v>
+      </c>
+      <c r="C96" t="s">
         <v>202</v>
       </c>
-      <c r="C96" t="s">
-        <v>302</v>
-      </c>
       <c r="D96" t="s">
-        <v>312</v>
+        <v>436</v>
       </c>
       <c r="E96" t="s">
-        <v>414</v>
+        <v>314</v>
       </c>
       <c r="F96" t="s">
-        <v>453</v>
+        <v>320</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I96" t="s">
+        <v>325</v>
+      </c>
+      <c r="J96" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="s">
+        <v>437</v>
+      </c>
+      <c r="C97" t="s">
         <v>203</v>
       </c>
-      <c r="C97" t="s">
-        <v>303</v>
-      </c>
       <c r="D97" t="s">
-        <v>312</v>
+        <v>438</v>
       </c>
       <c r="E97" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="F97" t="s">
-        <v>454</v>
+        <v>320</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I97" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="s">
+        <v>439</v>
+      </c>
+      <c r="C98" t="s">
         <v>204</v>
       </c>
-      <c r="C98" t="s">
-        <v>304</v>
-      </c>
       <c r="D98" t="s">
-        <v>312</v>
+        <v>440</v>
       </c>
       <c r="E98" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
       <c r="F98" t="s">
-        <v>455</v>
+        <v>320</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I98" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="s">
+        <v>441</v>
+      </c>
+      <c r="C99" t="s">
         <v>205</v>
       </c>
-      <c r="C99" t="s">
-        <v>305</v>
-      </c>
       <c r="D99" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="E99" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="F99" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="I99" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="s">
+        <v>442</v>
+      </c>
+      <c r="C100" t="s">
         <v>206</v>
       </c>
-      <c r="C100" t="s">
-        <v>306</v>
-      </c>
       <c r="D100" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="E100" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="F100" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="I100" t="s">
+        <v>325</v>
+      </c>
+      <c r="J100" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="s">
+        <v>443</v>
+      </c>
+      <c r="C101" t="s">
         <v>207</v>
       </c>
-      <c r="C101" t="s">
-        <v>307</v>
-      </c>
       <c r="D101" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E101" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="F101" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>461</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
